--- a/Results/xlsx/RS230009BOS01.xlsx
+++ b/Results/xlsx/RS230009BOS01.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">      20740</t>
+          <t xml:space="preserve">      28014</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2480,19 +2480,19 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.03                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-03</t>
+          <t xml:space="preserve">      2021-03-01</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">      20869</t>
+          <t xml:space="preserve">      28015</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.04                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-04</t>
+          <t xml:space="preserve">      2021-03-01</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">      20870</t>
+          <t xml:space="preserve">      28063</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2574,19 +2574,19 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.04                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-04</t>
+          <t xml:space="preserve">      2021-03-01</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">      20963</t>
+          <t xml:space="preserve">      20740</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.05                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.03                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-05</t>
+          <t xml:space="preserve">      2021-02-03</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">      20964</t>
+          <t xml:space="preserve">      20869</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2663,24 +2663,24 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.05                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.04                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-05</t>
+          <t xml:space="preserve">      2021-02-04</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">      21004</t>
+          <t xml:space="preserve">      20870</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2710,24 +2710,24 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.06                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.04                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-06</t>
+          <t xml:space="preserve">      2021-02-04</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">      21005</t>
+          <t xml:space="preserve">      20963</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2757,24 +2757,24 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.06                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.05                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-06</t>
+          <t xml:space="preserve">      2021-02-05</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">      20910</t>
+          <t xml:space="preserve">      20964</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2804,12 +2804,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.05                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.05                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2821,7 +2821,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">      20911</t>
+          <t xml:space="preserve">      21004</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2851,24 +2851,24 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.05                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.06                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-05</t>
+          <t xml:space="preserve">      2021-02-06</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">      21096</t>
+          <t xml:space="preserve">      21005</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2898,24 +2898,24 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.07                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.06                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-07</t>
+          <t xml:space="preserve">      2021-02-06</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">      21097</t>
+          <t xml:space="preserve">      20910</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2945,24 +2945,24 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.07                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.05                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-07</t>
+          <t xml:space="preserve">      2021-02-05</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">      21149</t>
+          <t xml:space="preserve">      20911</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2997,19 +2997,19 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.07                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.05                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-07</t>
+          <t xml:space="preserve">      2021-02-05</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">      21236</t>
+          <t xml:space="preserve">      21096</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3039,24 +3039,24 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.08                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.07                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-08</t>
+          <t xml:space="preserve">      2021-02-07</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">      21056</t>
+          <t xml:space="preserve">      21097</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3091,19 +3091,19 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.06                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.07                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-06</t>
+          <t xml:space="preserve">      2021-02-07</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">      21189</t>
+          <t xml:space="preserve">      21149</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3133,24 +3133,24 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.08                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.07                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-08</t>
+          <t xml:space="preserve">      2021-02-07</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">      21190</t>
+          <t xml:space="preserve">      21236</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3197,7 +3197,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27575</t>
+          <t xml:space="preserve">      21056</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3227,24 +3227,24 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.24                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.06                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-24</t>
+          <t xml:space="preserve">      2021-02-06</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27576</t>
+          <t xml:space="preserve">      21189</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3274,24 +3274,24 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.24                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.08                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-24</t>
+          <t xml:space="preserve">      2021-02-08</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27622</t>
+          <t xml:space="preserve">      21190</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3321,24 +3321,24 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.24                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.08                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-24</t>
+          <t xml:space="preserve">      2021-02-08</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27623</t>
+          <t xml:space="preserve">      27575</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3368,12 +3368,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.24                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.24                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3385,7 +3385,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">      20654</t>
+          <t xml:space="preserve">      27576</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3415,24 +3415,24 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.02                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.24                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-02</t>
+          <t xml:space="preserve">      2021-02-24</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">      20821</t>
+          <t xml:space="preserve">      27622</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3467,64 +3467,675 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.04                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.24                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-04</t>
+          <t xml:space="preserve">      2021-02-24</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t xml:space="preserve">      27623</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.24                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      27663</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.25                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      27664</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      27712</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      27752</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.26                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      27753</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      27839</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      27840</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      27932</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      27799</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      27892</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      20654</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.02                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      20821</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.04                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t xml:space="preserve">      20822</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         NULL</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t xml:space="preserve">No PL global price change data for the report date: 2021.02.04                                                                                                                                                                                                  </t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t xml:space="preserve">      2021-02-04</t>
         </is>
       </c>
     </row>
-    <row r="67"/>
-    <row r="68"/>
+    <row r="80"/>
+    <row r="81"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
